--- a/Control Flow/Proj1_control_signals.xlsx
+++ b/Control Flow/Proj1_control_signals.xlsx
@@ -49,7 +49,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">s_DMemWr </t>
     </r>
@@ -60,7 +59,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[MemWrite from text]</t>
     </r>
@@ -72,7 +70,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">s_RegWr </t>
     </r>
@@ -83,7 +80,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[RegWrite from text]</t>
     </r>
@@ -110,7 +106,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -121,7 +116,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[use the appropriately extended immediate as source B]</t>
     </r>
@@ -133,7 +127,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0010 </t>
     </r>
@@ -144,7 +137,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[the alu will perform an add of A and B]</t>
     </r>
@@ -156,7 +148,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0 </t>
     </r>
@@ -167,7 +158,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[addi does NOT read from memory]</t>
     </r>
@@ -179,7 +169,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0 </t>
     </r>
@@ -190,7 +179,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[addi does NOT write to memory]</t>
     </r>
@@ -202,7 +190,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -213,7 +200,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[addi writes back to a register]</t>
     </r>
@@ -225,7 +211,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0 </t>
     </r>
@@ -236,7 +221,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[addi uses rt as destination register rather than rd]</t>
     </r>
@@ -402,13 +386,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -424,6 +407,70 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i val="true"/>
@@ -431,24 +478,59 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -456,8 +538,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -481,6 +578,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -503,19 +648,95 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -526,29 +747,25 @@
   </sheetPr>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H28" activeCellId="0" sqref="H28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I:I"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="50.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="40.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="37.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="46.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="4.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="2.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="10.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -573,7 +790,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -599,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,11 +1356,14 @@
       <c r="G28" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H28" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I28" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>

--- a/Control Flow/Proj1_control_signals.xlsx
+++ b/Control Flow/Proj1_control_signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdogg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024D51BB-45C2-4B7C-8495-74108CFAD08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A2349F-9E0A-48AD-AD3D-D74F17D8D3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
   <si>
     <t>Instruction</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Unisigned</t>
   </si>
 </sst>
 </file>
@@ -880,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -899,7 +902,7 @@
     <col min="11" max="1025" width="10.84765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -924,7 +927,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -970,8 +973,11 @@
       <c r="Q2" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R2" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1023,8 +1029,11 @@
       <c r="Q3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1085,11 @@
       <c r="Q4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1129,8 +1141,11 @@
       <c r="Q5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1182,8 +1197,11 @@
       <c r="Q6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1235,8 +1253,11 @@
       <c r="Q7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1288,8 +1309,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1341,8 +1365,11 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1391,8 +1418,11 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1444,8 +1474,11 @@
       <c r="Q11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1497,8 +1530,11 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
@@ -1550,8 +1586,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1603,8 +1642,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1656,8 +1698,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -1709,8 +1754,11 @@
       <c r="Q16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -1762,8 +1810,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
@@ -1815,8 +1866,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -1868,8 +1922,11 @@
       <c r="Q19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
@@ -1921,8 +1978,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
@@ -1971,8 +2031,11 @@
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -2024,8 +2087,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
@@ -2077,8 +2143,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
@@ -2130,8 +2199,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
@@ -2183,8 +2255,11 @@
       <c r="Q25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -2236,8 +2311,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
@@ -2289,8 +2367,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
@@ -2342,8 +2423,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A29" s="3" t="s">
         <v>63</v>
       </c>
@@ -2393,6 +2477,9 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Control Flow/Proj1_control_signals.xlsx
+++ b/Control Flow/Proj1_control_signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdogg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A2349F-9E0A-48AD-AD3D-D74F17D8D3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7049A7BD-3CCE-4CF1-8FEC-4B5879182B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="87">
   <si>
     <t>Instruction</t>
   </si>
@@ -43,27 +43,6 @@
   </si>
   <si>
     <t>MemtoReg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">s_DMemWr </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>[MemWrite from text]</t>
-    </r>
   </si>
   <si>
     <r>
@@ -297,84 +276,12 @@
     <t>010</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>011</t>
   </si>
   <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>033</t>
-  </si>
-  <si>
-    <t>034</t>
-  </si>
-  <si>
-    <t>035</t>
-  </si>
-  <si>
-    <t>036</t>
-  </si>
-  <si>
     <t>011111</t>
   </si>
   <si>
@@ -417,7 +324,34 @@
     <t>X</t>
   </si>
   <si>
-    <t>Unisigned</t>
+    <t>Unsigned</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">s_DMemWr </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[MemWrite from text]</t>
+    </r>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -883,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -935,76 +869,76 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
@@ -1012,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O3" s="3">
         <v>0</v>
@@ -1035,19 +969,19 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1068,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M4" s="3">
         <v>0</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
@@ -1091,32 +1025,32 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J5" s="4">
         <v>0</v>
       </c>
@@ -1124,13 +1058,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
@@ -1147,19 +1081,19 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -1180,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O6" s="3">
         <v>0</v>
@@ -1203,19 +1137,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1233,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O7" s="3">
         <v>0</v>
@@ -1259,19 +1193,19 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -1283,22 +1217,22 @@
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -1315,19 +1249,19 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -1339,22 +1273,22 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -1371,19 +1305,19 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -1392,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
@@ -1401,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -1424,19 +1358,19 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -1454,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="O11" s="3">
         <v>0</v>
@@ -1480,19 +1414,19 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1510,16 +1444,16 @@
         <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -1536,19 +1470,19 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -1560,22 +1494,22 @@
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="O13" s="3">
         <v>0</v>
@@ -1592,19 +1526,19 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1622,16 +1556,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1648,19 +1582,19 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1672,22 +1606,22 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" s="4">
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1704,19 +1638,19 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1737,13 +1671,13 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O16" s="3">
         <v>0</v>
@@ -1760,19 +1694,19 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1784,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" s="4">
         <v>0</v>
@@ -1793,13 +1727,13 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1816,19 +1750,19 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1846,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -1855,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1872,19 +1806,19 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" s="3">
         <v>0</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -1902,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
@@ -1911,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O19" s="3">
         <v>0</v>
@@ -1928,19 +1862,19 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1958,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1967,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1984,19 +1918,19 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -2005,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" s="4">
         <v>0</v>
@@ -2014,13 +1948,13 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -2037,19 +1971,19 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -2070,13 +2004,13 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -2093,19 +2027,19 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -2126,13 +2060,13 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -2149,22 +2083,22 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -2173,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
@@ -2182,13 +2116,13 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -2205,22 +2139,22 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -2229,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25" s="4">
         <v>0</v>
@@ -2238,13 +2172,13 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M25" s="3">
         <v>0</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O25" s="3">
         <v>0</v>
@@ -2261,22 +2195,22 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -2285,22 +2219,22 @@
         <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" s="4">
         <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -2317,19 +2251,19 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
@@ -2341,22 +2275,22 @@
         <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27" s="4">
         <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -2373,22 +2307,22 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D28" s="3">
         <v>0</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -2403,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M28" s="3">
         <v>0</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O28" s="3">
         <v>1</v>
@@ -2429,19 +2363,19 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2462,13 +2396,13 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>

--- a/Control Flow/Proj1_control_signals.xlsx
+++ b/Control Flow/Proj1_control_signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdogg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7049A7BD-3CCE-4CF1-8FEC-4B5879182B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C947000-2C8A-4966-97FC-749A2BEDB61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="88">
   <si>
     <t>Instruction</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>XXX</t>
+  </si>
+  <si>
+    <t>Jump</t>
   </si>
 </sst>
 </file>
@@ -815,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK29"/>
+  <dimension ref="A1:AML29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -832,11 +835,12 @@
     <col min="7" max="7" width="29.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="44.1484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.34765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="1025" width="10.84765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.34765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="1026" width="10.84765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -860,8 +864,9 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -883,35 +888,38 @@
       <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -939,24 +947,24 @@
       <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
       <c r="P3" s="3">
         <v>0</v>
       </c>
@@ -966,8 +974,11 @@
       <c r="R3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -995,24 +1006,24 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
       <c r="P4" s="3">
         <v>0</v>
       </c>
@@ -1022,8 +1033,11 @@
       <c r="R4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1051,24 +1065,24 @@
       <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
       <c r="P5" s="3">
         <v>0</v>
       </c>
@@ -1076,10 +1090,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1107,24 +1124,24 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
       <c r="P6" s="3">
         <v>0</v>
       </c>
@@ -1132,10 +1149,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1163,24 +1183,24 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>80</v>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6" t="s">
+      <c r="M7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
       <c r="P7" s="3">
         <v>0</v>
       </c>
@@ -1190,8 +1210,11 @@
       <c r="R7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1219,24 +1242,24 @@
       <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>80</v>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -1246,8 +1269,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1275,24 +1301,24 @@
       <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>80</v>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="M9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
@@ -1302,8 +1328,11 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1328,24 +1357,24 @@
       <c r="I10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6" t="s">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
@@ -1355,8 +1384,11 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1384,24 +1416,24 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>80</v>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="M11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
       <c r="P11" s="3">
         <v>0</v>
       </c>
@@ -1411,8 +1443,11 @@
       <c r="R11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1440,24 +1475,24 @@
       <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>80</v>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6" t="s">
+      <c r="M12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
@@ -1467,8 +1502,11 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1496,24 +1534,24 @@
       <c r="I13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>80</v>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6" t="s">
+      <c r="M13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
       <c r="P13" s="3">
         <v>0</v>
       </c>
@@ -1523,8 +1561,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1552,24 +1593,24 @@
       <c r="I14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>80</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6" t="s">
+      <c r="M14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1579,8 +1620,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -1608,24 +1652,24 @@
       <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>80</v>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6" t="s">
+      <c r="M15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1635,8 +1679,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1664,24 +1711,24 @@
       <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6" t="s">
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
       <c r="P16" s="3">
         <v>0</v>
       </c>
@@ -1691,8 +1738,11 @@
       <c r="R16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -1720,24 +1770,24 @@
       <c r="I17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6" t="s">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1747,8 +1797,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -1776,24 +1829,24 @@
       <c r="I18" s="3">
         <v>1</v>
       </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1</v>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1803,8 +1856,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -1832,24 +1888,24 @@
       <c r="I19" s="3">
         <v>1</v>
       </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
       <c r="P19" s="3">
         <v>0</v>
       </c>
@@ -1859,8 +1915,11 @@
       <c r="R19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -1888,24 +1947,24 @@
       <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="M20" s="3">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1915,8 +1974,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
@@ -1941,24 +2003,24 @@
       <c r="I21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6" t="s">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
@@ -1968,8 +2030,11 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -1997,24 +2062,24 @@
       <c r="I22" s="3">
         <v>1</v>
       </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6" t="s">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -2024,8 +2089,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
@@ -2053,24 +2121,24 @@
       <c r="I23" s="3">
         <v>1</v>
       </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6" t="s">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -2078,10 +2146,13 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -2109,24 +2180,24 @@
       <c r="I24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6" t="s">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -2136,8 +2207,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -2165,35 +2239,38 @@
       <c r="I25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6" t="s">
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
       <c r="P25" s="3">
         <v>0</v>
       </c>
       <c r="Q25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.6">
+        <v>1</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A26" s="3" t="s">
         <v>58</v>
       </c>
@@ -2221,24 +2298,24 @@
       <c r="I26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>80</v>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6" t="s">
+      <c r="M26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -2248,8 +2325,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2277,35 +2357,38 @@
       <c r="I27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>80</v>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6" t="s">
+      <c r="M27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
@@ -2333,26 +2416,26 @@
       <c r="I28" s="3">
         <v>0</v>
       </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>80</v>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6" t="s">
+      <c r="M28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O28" s="3">
-        <v>1</v>
-      </c>
       <c r="P28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="3">
         <v>0</v>
@@ -2360,8 +2443,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
@@ -2389,24 +2475,24 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6" t="s">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2414,6 +2500,9 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2422,7 +2511,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="D1:P1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
